--- a/lab5/Исследование.xlsx
+++ b/lab5/Исследование.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouroboros/Work/neural-networks/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DF2309-0B19-9244-B5D3-B767C293FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD99140-C5AF-8A40-8E87-C8172F09B1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="22100" windowWidth="28800" windowHeight="15940" activeTab="5" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
+    <workbookView xWindow="5340" yWindow="21600" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
   </bookViews>
   <sheets>
     <sheet name="Хэбб" sheetId="7" r:id="rId1"/>
@@ -357,10 +357,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,42 +949,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1'!$J$6:$J$16</c:f>
+              <c:f>'1'!$I$6:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1773</c:v>
+                  <c:v>0.79432499999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2703</c:v>
+                  <c:v>0.81757499999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3339000000000001</c:v>
+                  <c:v>0.83347499999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88049999999999995</c:v>
+                  <c:v>0.72012500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11119999999999999</c:v>
+                  <c:v>0.52780000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.23269999999999999</c:v>
+                  <c:v>0.44182500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.36840000000000001</c:v>
+                  <c:v>0.40789999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.18720000000000001</c:v>
+                  <c:v>0.45319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.56330000000000002</c:v>
+                  <c:v>0.35917500000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.87549999999999994</c:v>
+                  <c:v>0.28112500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.54100000000000004</c:v>
+                  <c:v>0.36475000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7673,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9903B5-F256-B946-ACBA-927DDB75836C}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7698,16 +7698,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>1295</v>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>948</v>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1123</v>
       </c>
       <c r="E4" t="s">
@@ -7733,10 +7733,10 @@
     <row r="5" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>1243</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -7747,7 +7747,7 @@
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>1313</v>
       </c>
       <c r="E6" s="11">
@@ -7758,7 +7758,7 @@
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>1397</v>
       </c>
       <c r="E7" s="11">
@@ -7767,13 +7767,13 @@
     </row>
     <row r="8" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>196</v>
       </c>
       <c r="E8" s="11">
@@ -7784,7 +7784,7 @@
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>201</v>
       </c>
       <c r="E9" s="11">
@@ -7795,7 +7795,7 @@
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>185</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -7805,10 +7805,10 @@
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>241</v>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>257</v>
       </c>
     </row>
@@ -7824,19 +7824,19 @@
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>98</v>
       </c>
     </row>
@@ -7844,7 +7844,7 @@
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>101</v>
       </c>
     </row>
@@ -7852,17 +7852,17 @@
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>128</v>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>112</v>
       </c>
     </row>
@@ -7878,21 +7878,21 @@
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>36345</v>
       </c>
     </row>
@@ -7900,7 +7900,7 @@
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>38655</v>
       </c>
     </row>
@@ -7908,17 +7908,17 @@
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>31936</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>57243</v>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>39453</v>
       </c>
     </row>
@@ -7934,19 +7934,19 @@
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>47173</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>5132</v>
       </c>
     </row>
@@ -7954,7 +7954,7 @@
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>6912</v>
       </c>
     </row>
@@ -7962,17 +7962,17 @@
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>6378</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>8234</v>
       </c>
     </row>
@@ -7980,7 +7980,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>10165</v>
       </c>
     </row>
@@ -7988,19 +7988,19 @@
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>7781</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>1</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>2901</v>
       </c>
     </row>
@@ -8008,7 +8008,7 @@
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>3361</v>
       </c>
     </row>
@@ -8016,17 +8016,17 @@
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>3712</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>3527</v>
       </c>
     </row>
@@ -8034,7 +8034,7 @@
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>3624</v>
       </c>
     </row>
@@ -8042,12 +8042,22 @@
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <v>3823</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="A20:A37"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="C20:C22"/>
@@ -8058,16 +8068,6 @@
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8078,7 +8078,7 @@
   <dimension ref="C10:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:L32"/>
+      <selection activeCell="C10" sqref="C10:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8735,7 +8735,7 @@
   <dimension ref="D5:L16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9730,7 +9730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EFB1D7-577B-2243-AFE9-212E9EE82975}">
   <dimension ref="D5:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -10064,7 +10064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF1687D-0094-D240-910E-CF0533D51690}">
   <dimension ref="D5:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
